--- a/data/lit_review_data_BS.xlsx
+++ b/data/lit_review_data_BS.xlsx
@@ -16,6 +16,36 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="G243">
+      <text>
+        <t xml:space="preserve">it is a bit unique, but estimated values are compared to true values
+	-Björn Siepe</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H242">
+      <text>
+        <t xml:space="preserve">a bit misleading due to the unspecific use of "convergence", but I don't think that it's about missingness
+	-Björn Siepe</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="R236">
+      <text>
+        <t xml:space="preserve">only unclear for some
+	-Björn Siepe</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="R241">
+      <text>
+        <t xml:space="preserve">only unclear for some
+	-Björn Siepe</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J234">
+      <text>
+        <t xml:space="preserve">I would not count "we first simulated 5000 meta-analyses, and then excluded the meta-analyses with zero total event counts in a single arm or in both arms" here
+	-Björn Siepe</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="V201">
       <text>
         <t xml:space="preserve">partially, not for all
@@ -173,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="526">
   <si>
     <t>id</t>
   </si>
@@ -1959,6 +1989,167 @@
   </si>
   <si>
     <t>http://dx.doi.org/10.1037/met0000302</t>
+  </si>
+  <si>
+    <t>agreement</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jrsm.1521</t>
+  </si>
+  <si>
+    <t>table in the supplement</t>
+  </si>
+  <si>
+    <t>proportion of converged runs per condition in table</t>
+  </si>
+  <si>
+    <t>code for methods in journal supplement, but not for sim. Generally, results seem a bit odd at first look (many methods with almost exactly the same bias in certain conditions)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jrsm.1298</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">code on Dataverse </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://dataverse.harvard.edu/dataset.xhtml?persistentId=doi%3A10.7910%2FDVN%2F4IOLOP</t>
+    </r>
+  </si>
+  <si>
+    <t>https://doi.org/10.1037/met0000360</t>
+  </si>
+  <si>
+    <t>proportion of replications for which all four models are properly converged</t>
+  </si>
+  <si>
+    <t>in some cases, "power coefficients cannot be interpreted", so they full condition is discarded. in other cases, it's unclear</t>
+  </si>
+  <si>
+    <t>in some cases, the full condiition is not interpreted</t>
+  </si>
+  <si>
+    <t>"convergence rates are unacceptably small"</t>
+  </si>
+  <si>
+    <t>code was supposed to be on the authors' homepage, but the link is dead</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/01621459.2022.2081575</t>
+  </si>
+  <si>
+    <t>only for one method, but number of intervals with infinite length per condition</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/01621459.2021.1918130</t>
+  </si>
+  <si>
+    <t>code in journal supplement, seems to (potentially) reproduce most parts of the sim study</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jrsm.1489</t>
+  </si>
+  <si>
+    <t>sim data and example code available, but not sim code</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/01621459.2021.1920958</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">code on GitHub </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://github.com/ekatsevi/Focused-BH/tree/master/src/simulations</t>
+    </r>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/sim.9860</t>
+  </si>
+  <si>
+    <t>not for all conditions, but for selected ones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in some cases, they used method replacement: " if UMLE failed to converge, we estimated
+as the posterior median obtained by CBE". But it's unclear what happened if the other methods failed </t>
+  </si>
+  <si>
+    <t>method replacement</t>
+  </si>
+  <si>
+    <t>it is implicitly justified in the introduction (because the replacement is a constrained estimator)</t>
+  </si>
+  <si>
+    <t>code only for example</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/01621459.2021.2023550</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/sim.9906</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">code on codeberg </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://codeberg.org/peter19/serocalc/</t>
+    </r>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jrsm.1647</t>
+  </si>
+  <si>
+    <t>not reported</t>
+  </si>
+  <si>
+    <t>"we discarded repetitions with K&lt;3and used the observed number of repetitions for analysis"</t>
+  </si>
+  <si>
+    <t>discarded</t>
+  </si>
+  <si>
+    <t>code for methods, not for sim</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/sim.9856</t>
+  </si>
+  <si>
+    <t>"All simulation runs for all model variants successfully converged. For the AGGF model, one of the model standard error estimates was degenerate."</t>
+  </si>
+  <si>
+    <t>convergence summarized in table. "For the AGGF model, one of the model standard error estimates was degenerate."</t>
+  </si>
+  <si>
+    <t>unclear if "one of the model standard error estimates was degenerate" means that it was deleted or not</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">code on GitHub </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://github.com/marbrath/melanoma-sim</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -13271,7 +13462,9 @@
       <c r="W171" s="9"/>
       <c r="X171" s="10"/>
       <c r="Y171" s="10"/>
-      <c r="Z171" s="2"/>
+      <c r="Z171" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="AA171" s="10"/>
       <c r="AB171" s="10"/>
       <c r="AC171" s="2"/>
@@ -17151,6 +17344,872 @@
         <v>57</v>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B234" s="1">
+        <v>2021.0</v>
+      </c>
+      <c r="C234" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I234" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K234" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N234" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O234" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="P234" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q234" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="R234" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S234" s="9"/>
+      <c r="T234" s="10"/>
+      <c r="U234" s="10"/>
+      <c r="V234" s="9"/>
+      <c r="W234" s="9"/>
+      <c r="X234" s="10"/>
+      <c r="Y234" s="10"/>
+      <c r="Z234" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA234" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB234" s="10"/>
+      <c r="AC234" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="AD234" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B235" s="1">
+        <v>2018.0</v>
+      </c>
+      <c r="C235" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I235" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K235" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M235" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N235" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O235" s="9"/>
+      <c r="P235" s="10"/>
+      <c r="Q235" s="10"/>
+      <c r="R235" s="9"/>
+      <c r="S235" s="9"/>
+      <c r="T235" s="10"/>
+      <c r="U235" s="10"/>
+      <c r="V235" s="9"/>
+      <c r="W235" s="9"/>
+      <c r="X235" s="10"/>
+      <c r="Y235" s="10"/>
+      <c r="Z235" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA235" s="10"/>
+      <c r="AB235" s="10"/>
+      <c r="AC235" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="AD235" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B236" s="1">
+        <v>2021.0</v>
+      </c>
+      <c r="C236" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I236" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K236" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N236" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O236" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="P236" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q236" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="R236" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S236" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="T236" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="U236" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="V236" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W236" s="9"/>
+      <c r="X236" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y236" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="Z236" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA236" s="10"/>
+      <c r="AB236" s="10"/>
+      <c r="AC236" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="AD236" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B237" s="1">
+        <v>2022.0</v>
+      </c>
+      <c r="C237" s="1">
+        <v>544.0</v>
+      </c>
+      <c r="D237" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I237" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K237" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N237" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O237" s="9"/>
+      <c r="P237" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q237" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="R237" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S237" s="9"/>
+      <c r="T237" s="10"/>
+      <c r="U237" s="10"/>
+      <c r="V237" s="9"/>
+      <c r="W237" s="9"/>
+      <c r="X237" s="10"/>
+      <c r="Y237" s="10"/>
+      <c r="Z237" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA237" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB237" s="10"/>
+      <c r="AC237" s="9"/>
+      <c r="AD237" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B238" s="1">
+        <v>2021.0</v>
+      </c>
+      <c r="C238" s="1">
+        <v>541.0</v>
+      </c>
+      <c r="D238" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I238" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K238" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M238" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N238" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O238" s="9"/>
+      <c r="P238" s="10"/>
+      <c r="Q238" s="10"/>
+      <c r="R238" s="9"/>
+      <c r="S238" s="9"/>
+      <c r="T238" s="10"/>
+      <c r="U238" s="10"/>
+      <c r="V238" s="9"/>
+      <c r="W238" s="9"/>
+      <c r="X238" s="10"/>
+      <c r="Y238" s="10"/>
+      <c r="Z238" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA238" s="10"/>
+      <c r="AB238" s="10"/>
+      <c r="AC238" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="AD238" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B239" s="1">
+        <v>2021.0</v>
+      </c>
+      <c r="C239" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D239" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I239" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K239" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M239" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N239" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O239" s="9"/>
+      <c r="P239" s="10"/>
+      <c r="Q239" s="10"/>
+      <c r="R239" s="9"/>
+      <c r="S239" s="9"/>
+      <c r="T239" s="10"/>
+      <c r="U239" s="10"/>
+      <c r="V239" s="9"/>
+      <c r="W239" s="9"/>
+      <c r="X239" s="10"/>
+      <c r="Y239" s="10"/>
+      <c r="Z239" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA239" s="10"/>
+      <c r="AB239" s="10"/>
+      <c r="AC239" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="AD239" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B240" s="1">
+        <v>2021.0</v>
+      </c>
+      <c r="C240" s="1">
+        <v>541.0</v>
+      </c>
+      <c r="D240" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I240" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K240" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M240" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N240" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O240" s="9"/>
+      <c r="P240" s="10"/>
+      <c r="Q240" s="10"/>
+      <c r="R240" s="9"/>
+      <c r="S240" s="9"/>
+      <c r="T240" s="10"/>
+      <c r="U240" s="10"/>
+      <c r="V240" s="9"/>
+      <c r="W240" s="9"/>
+      <c r="X240" s="10"/>
+      <c r="Y240" s="10"/>
+      <c r="Z240" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA240" s="10"/>
+      <c r="AB240" s="10"/>
+      <c r="AC240" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="AD240" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B241" s="1">
+        <v>2023.0</v>
+      </c>
+      <c r="C241" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="D241" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I241" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J241" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K241" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L241" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M241" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N241" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O241" s="9"/>
+      <c r="P241" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q241" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="R241" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S241" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="T241" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="U241" s="10"/>
+      <c r="V241" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W241" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="X241" s="10"/>
+      <c r="Y241" s="10"/>
+      <c r="Z241" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA241" s="10"/>
+      <c r="AB241" s="10"/>
+      <c r="AC241" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="AD241" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B242" s="1">
+        <v>2022.0</v>
+      </c>
+      <c r="C242" s="1">
+        <v>543.0</v>
+      </c>
+      <c r="D242" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I242" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J242" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K242" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L242" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M242" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N242" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O242" s="9"/>
+      <c r="P242" s="10"/>
+      <c r="Q242" s="10"/>
+      <c r="R242" s="9"/>
+      <c r="S242" s="9"/>
+      <c r="T242" s="10"/>
+      <c r="U242" s="10"/>
+      <c r="V242" s="9"/>
+      <c r="W242" s="9"/>
+      <c r="X242" s="10"/>
+      <c r="Y242" s="10"/>
+      <c r="Z242" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA242" s="10"/>
+      <c r="AB242" s="10"/>
+      <c r="AC242" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="AD242" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B243" s="1">
+        <v>2023.0</v>
+      </c>
+      <c r="C243" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I243" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J243" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K243" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L243" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M243" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N243" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O243" s="9"/>
+      <c r="P243" s="10"/>
+      <c r="Q243" s="10"/>
+      <c r="R243" s="9"/>
+      <c r="S243" s="9"/>
+      <c r="T243" s="10"/>
+      <c r="U243" s="10"/>
+      <c r="V243" s="9"/>
+      <c r="W243" s="9"/>
+      <c r="X243" s="10"/>
+      <c r="Y243" s="10"/>
+      <c r="Z243" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA243" s="10"/>
+      <c r="AB243" s="10"/>
+      <c r="AC243" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="AD243" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B244" s="1">
+        <v>2023.0</v>
+      </c>
+      <c r="C244" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I244" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J244" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K244" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L244" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M244" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N244" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O244" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="P244" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q244" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="R244" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S244" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="T244" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="U244" s="10"/>
+      <c r="V244" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W244" s="9"/>
+      <c r="X244" s="10"/>
+      <c r="Y244" s="10"/>
+      <c r="Z244" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA244" s="10"/>
+      <c r="AB244" s="10"/>
+      <c r="AC244" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="AD244" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B245" s="1">
+        <v>2023.0</v>
+      </c>
+      <c r="C245" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I245" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J245" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K245" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L245" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M245" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N245" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O245" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="P245" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q245" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="R245" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S245" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="T245" s="10"/>
+      <c r="U245" s="10"/>
+      <c r="V245" s="9"/>
+      <c r="W245" s="9"/>
+      <c r="X245" s="10"/>
+      <c r="Y245" s="10"/>
+      <c r="Z245" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA245" s="10"/>
+      <c r="AB245" s="10"/>
+      <c r="AC245" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD245" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="H2:K2"/>
@@ -17163,31 +18222,31 @@
     <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X4:X233">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X4:X245">
       <formula1>"reference method,reference other study,reasoning,other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="P1:P233">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="P1:P245">
       <formula1>"not quantified,missing proportion (total),missing proportion (per method),missing proportion (per method/condition),max missing proportion (per method),max missing proportion (per method/condition),other,How are the missing cases summarized?,Q2.2_missingn"&amp;"ess_summarized,zero missingness"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T1:T233">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T1:T245">
       <formula1>"case-wise deletion,list-wise deletion,other deletion,imputation,additional simulations,method replacement,other,Q3.1_method_dealing_with_missingness,Which method is used to deal with missingness?"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F233">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F245">
       <formula1>"SP,FB,BS,AL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H233 Z4:AA233">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H245 Z4:AA245">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4:R233 V4:V233">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4:R245 V4:V245">
       <formula1>"yes,no,unclear"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G233">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G245">
       <formula1>"yes,no,unclear"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E233">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E245">
       <formula1>"PM,SiM,JASA,RSM,EM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AD4:AD233">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AD4:AD245">
       <formula1>"high,medium,low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17447,8 +18506,24 @@
     <hyperlink r:id="rId254" ref="D231"/>
     <hyperlink r:id="rId255" ref="D232"/>
     <hyperlink r:id="rId256" ref="D233"/>
+    <hyperlink r:id="rId257" ref="D234"/>
+    <hyperlink r:id="rId258" ref="D235"/>
+    <hyperlink r:id="rId259" ref="AC235"/>
+    <hyperlink r:id="rId260" ref="D236"/>
+    <hyperlink r:id="rId261" ref="D237"/>
+    <hyperlink r:id="rId262" ref="D238"/>
+    <hyperlink r:id="rId263" ref="D239"/>
+    <hyperlink r:id="rId264" ref="D240"/>
+    <hyperlink r:id="rId265" ref="AC240"/>
+    <hyperlink r:id="rId266" ref="D241"/>
+    <hyperlink r:id="rId267" ref="D242"/>
+    <hyperlink r:id="rId268" ref="D243"/>
+    <hyperlink r:id="rId269" ref="AC243"/>
+    <hyperlink r:id="rId270" ref="D244"/>
+    <hyperlink r:id="rId271" ref="D245"/>
+    <hyperlink r:id="rId272" ref="AC245"/>
   </hyperlinks>
-  <drawing r:id="rId257"/>
-  <legacyDrawing r:id="rId258"/>
+  <drawing r:id="rId273"/>
+  <legacyDrawing r:id="rId274"/>
 </worksheet>
 </file>
--- a/data/lit_review_data_BS.xlsx
+++ b/data/lit_review_data_BS.xlsx
@@ -2573,7 +2573,7 @@
     <col customWidth="1" min="7" max="7" width="16.25"/>
     <col customWidth="1" min="8" max="10" width="14.38"/>
     <col customWidth="1" min="11" max="16" width="14.25"/>
-    <col customWidth="1" min="17" max="17" width="24.38"/>
+    <col customWidth="1" min="17" max="17" width="57.0"/>
     <col customWidth="1" min="18" max="20" width="14.25"/>
     <col customWidth="1" min="21" max="21" width="16.38"/>
     <col customWidth="1" min="22" max="22" width="15.75"/>
